--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1475395.542029362</v>
+        <v>1472914.622203903</v>
       </c>
     </row>
     <row r="7">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>254.8881339726363</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>354.0471768951636</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
@@ -1433,7 +1433,7 @@
         <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689271</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.47419656789282</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>16.82824115216548</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>69.43227382271166</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
         <v>259.6028517494645</v>
@@ -1594,7 +1594,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>47.88278262134673</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>82.2676152010494</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>339.9532400480891</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>110.7486098009424</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>68.85017973406184</v>
       </c>
       <c r="G16" t="n">
         <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>312.0094110008744</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T17" t="n">
-        <v>105.0056554870412</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
         <v>177.099888753183</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>93.35153789290884</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1198840074563</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E19" t="n">
         <v>72.53867944085017</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948567</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>3.974324134331212</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T20" t="n">
-        <v>17.68304980209845</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D22" t="n">
-        <v>137.1198840074548</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411914</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,7 +2293,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,10 +2302,10 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463758</v>
+        <v>207.0890643413387</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>168.3363911711812</v>
       </c>
       <c r="C25" t="n">
         <v>93.35153789290884</v>
@@ -2482,7 +2482,7 @@
         <v>74.72018981249336</v>
       </c>
       <c r="E25" t="n">
-        <v>134.9383736358131</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F25" t="n">
         <v>71.52576481721225</v>
@@ -2561,7 +2561,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536689</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,7 +2615,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988195</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598765</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2849,7 +2849,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575764</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383243</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052297</v>
       </c>
       <c r="D37" t="n">
-        <v>101.8902586125585</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>90.95618068285729</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482638</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092336</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621592</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3478,16 +3478,16 @@
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.3104517307971</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383242</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>50.95950582245123</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333702</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
@@ -3721,10 +3721,10 @@
         <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>170.2318734253254</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239899</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.3541982182269</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846412</v>
+        <v>99.70874824091538</v>
       </c>
       <c r="F43" t="n">
-        <v>47.7363277948262</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092317</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621573</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441588</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007074</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538322</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092313</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621569</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033368</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>197.9921611783851</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.024935160932</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>163.1068713883839</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1711.919094425212</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1454.456332836691</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="D11" t="n">
-        <v>1123.382701489664</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>438.9403589382073</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597799</v>
+        <v>438.9403589382073</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645</v>
+        <v>81.31694793299103</v>
       </c>
       <c r="H11" t="n">
-        <v>81.3169479329909</v>
+        <v>81.31694793299103</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5048,7 +5048,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
@@ -5057,10 +5057,10 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5072,19 +5072,19 @@
         <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039935</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.850719956089</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2434.274131945698</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.274131945698</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.32686722961</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>638.804067632889</v>
+        <v>418.3126375609359</v>
       </c>
       <c r="C13" t="n">
-        <v>638.804067632889</v>
+        <v>276.5685218927526</v>
       </c>
       <c r="D13" t="n">
-        <v>515.8794954802769</v>
+        <v>153.6439497401406</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802769</v>
+        <v>153.6439497401406</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420902</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765328</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5200,10 +5200,10 @@
         <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
         <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075785</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905035</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.378371290402</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.885950344239</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.660847567002</v>
+        <v>967.167030653552</v>
       </c>
       <c r="X13" t="n">
-        <v>930.8633639287083</v>
+        <v>766.3695470152584</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.2628520449018</v>
+        <v>572.7690351314519</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1498.714766761814</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="C14" t="n">
-        <v>1156.944317081126</v>
+        <v>1158.867147513818</v>
       </c>
       <c r="D14" t="n">
-        <v>1108.577869988856</v>
+        <v>827.7935161667913</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>469.1973308282707</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589724</v>
+        <v>469.1973308282707</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636926</v>
+        <v>81.31694793299084</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299084</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5306,7 +5306,7 @@
         <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
         <v>2837.383130573496</v>
@@ -5321,7 +5321,7 @@
         <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1498.714766761814</v>
+        <v>1518.274920318216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158131</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.5377403381726</v>
+        <v>418.3126375609361</v>
       </c>
       <c r="C16" t="n">
-        <v>568.6704577109581</v>
+        <v>276.5685218927529</v>
       </c>
       <c r="D16" t="n">
-        <v>445.745885558346</v>
+        <v>276.5685218927529</v>
       </c>
       <c r="E16" t="n">
-        <v>445.745885558346</v>
+        <v>276.5685218927529</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201593</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5452,34 +5452,34 @@
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
         <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376952</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
         <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.392133430789</v>
+        <v>967.1670306535523</v>
       </c>
       <c r="X16" t="n">
-        <v>1028.594649792495</v>
+        <v>766.3695470152586</v>
       </c>
       <c r="Y16" t="n">
-        <v>834.9941379086886</v>
+        <v>572.7690351314521</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1544.173786276205</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C17" t="n">
-        <v>1249.85296954359</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D17" t="n">
-        <v>966.2289711446367</v>
+        <v>940.9592424104343</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446367</v>
+        <v>940.9592424104343</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628261</v>
+        <v>604.6150378286237</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3183.890534670285</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3005.001758151918</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2748.580571016144</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2470.453615953827</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2171.629557900545</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1856.13192613253</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D19" t="n">
         <v>399.35235706258</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817307</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459976</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1632.378438483217</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C20" t="n">
-        <v>1338.057621750602</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>1054.433623351648</v>
+        <v>940.9592424104345</v>
       </c>
       <c r="E20" t="n">
-        <v>743.2870709612007</v>
+        <v>629.8126900199873</v>
       </c>
       <c r="F20" t="n">
-        <v>406.94286637939</v>
+        <v>293.4684854381767</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3272.095186877296</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3093.20641035893</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2836.785223223156</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2558.658268160839</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2259.834210107556</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1944.336578339541</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235535</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034436</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625802</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
         <v>253.8327163978705</v>
@@ -5902,22 +5902,22 @@
         <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604114</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865763</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.65726737195</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817295</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459963</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349357</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -5996,28 +5996,28 @@
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391688</v>
+        <v>1706.866817763031</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2253.645634821813</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2756.61810570115</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3151.392472058329</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932664</v>
@@ -6026,13 +6026,13 @@
         <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6063,13 +6063,13 @@
         <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243130995</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934469</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
         <v>772.017383606112</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138539</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937439</v>
+        <v>481.6929346574177</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892051</v>
+        <v>406.2179954528789</v>
       </c>
       <c r="E25" t="n">
         <v>332.9466020782828</v>
@@ -6139,10 +6139,10 @@
         <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634008</v>
+        <v>96.06173179634007</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6227,25 +6227,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2456.09431497013</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O26" t="n">
-        <v>2959.066785849467</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P26" t="n">
-        <v>3672.421873296413</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,10 +6382,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
@@ -6403,25 +6403,25 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2580.208754682581</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3145.076209411489</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6491,7 +6491,7 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6555,25 +6555,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,10 +6582,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6643,10 +6643,10 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570352</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297368</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2735.569460712894</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O32" t="n">
-        <v>3238.541931592231</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3633.31629794941</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
         <v>3933.269522603402</v>
@@ -6780,10 +6780,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,7 +6856,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973144</v>
@@ -6871,7 +6871,7 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
         <v>2189.856749167329</v>
@@ -6886,22 +6886,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6920,7 +6920,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
@@ -6968,7 +6968,7 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
@@ -7017,7 +7017,7 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
         <v>765.1517452158131</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>453.7336441225989</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C37" t="n">
-        <v>383.4688957685353</v>
+        <v>473.299353011007</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245368</v>
+        <v>323.1827135986713</v>
       </c>
       <c r="E37" t="n">
         <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1522.683025816217</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U37" t="n">
-        <v>1233.58015894186</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>978.8956707359733</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>788.1499352728561</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X37" t="n">
-        <v>658.831818948682</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y37" t="n">
-        <v>536.7106743789952</v>
+        <v>626.541131621467</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7199,25 +7199,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7251,7 +7251,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031477</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.6022649647795</v>
+        <v>552.4050786964424</v>
       </c>
       <c r="C40" t="n">
-        <v>430.6660820368726</v>
+        <v>383.4688957685355</v>
       </c>
       <c r="D40" t="n">
-        <v>379.2208771983802</v>
+        <v>332.0236909300431</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898304</v>
+        <v>282.7820319214933</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>234.5635189974263</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>165.5321169459886</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>117.9863647376897</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1077.567105309817</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891711</v>
+        <v>886.8213698466994</v>
       </c>
       <c r="X40" t="n">
-        <v>804.7004397908626</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.5792952211758</v>
+        <v>635.3821089528387</v>
       </c>
     </row>
     <row r="41">
@@ -7388,73 +7388,73 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.9308303909353</v>
+        <v>453.7336441225987</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368719</v>
+        <v>383.4688957685352</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245361</v>
+        <v>332.0236909300428</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.082050758176</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552289</v>
+        <v>978.895670735973</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891715</v>
+        <v>788.1499352728557</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649977</v>
+        <v>658.8318189486818</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214676</v>
+        <v>536.710674378995</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103807</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.2565860709</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052369</v>
@@ -7676,22 +7676,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7716,19 +7716,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158131</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.9279421464332</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C46" t="n">
-        <v>527.9917592185263</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D46" t="n">
-        <v>476.5465543800342</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>328.6334607976411</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>280.4149478735742</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>211.3835458221367</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7840,16 +7840,16 @@
         <v>1422.082050758176</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.089968759807</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>1031.34423329669</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X46" t="n">
-        <v>902.0261169725159</v>
+        <v>847.3337107649977</v>
       </c>
       <c r="Y46" t="n">
-        <v>779.9049724028293</v>
+        <v>682.5792952211756</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430633</v>
+        <v>157.2353108430628</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729011</v>
+        <v>184.4039433729004</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389608</v>
+        <v>191.4948909389599</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333072</v>
+        <v>181.0856325333062</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830246</v>
+        <v>179.3553748830236</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383995</v>
+        <v>182.8301554383985</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586589</v>
+        <v>190.8908035586581</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266127</v>
+        <v>192.0103836266121</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372535</v>
+        <v>113.603122337253</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672277</v>
+        <v>105.962971867227</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253597</v>
+        <v>104.1013981253589</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677692</v>
+        <v>92.30246558677612</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359739</v>
+        <v>106.8829608359732</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798327</v>
+        <v>105.3113487798321</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615459</v>
+        <v>120.8212784615455</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564656</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085229</v>
+        <v>119.1996074085225</v>
       </c>
       <c r="N10" t="n">
-        <v>108.428412314078</v>
+        <v>108.4284123140776</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530926</v>
+        <v>120.6694600530923</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662706</v>
+        <v>122.5080856662703</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>127.4994347185288</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8144253784345</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>336.8335818149096</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.40458911672741</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>62.52018570663733</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>277.832108723647</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.18875040233402</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>83.4646112112448</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>29.95440217116347</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.43763702691803</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>101.6726602836393</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>279.8801124122098</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>19.364552020838</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>29.57806471055899</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
         <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>49.65072170174298</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
         <v>69.43227382271166</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>25.01703144686002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>25.01703144685996</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0521183134032</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>112.3396371318028</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.268496584496461e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>3.268496584496461e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.457465084912614e-12</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>961435.4719046952</v>
+        <v>961435.4719046948</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795234.4923430701</v>
+        <v>795234.4923430698</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795234.49234307</v>
+        <v>795234.4923430699</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>865099.6242102486</v>
+        <v>865099.6242102487</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>865099.6242102485</v>
+        <v>865099.6242102487</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919545.0647614892</v>
+        <v>919545.0647614893</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893598.8939743267</v>
+        <v>893598.8939743266</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.528634001</v>
       </c>
       <c r="C2" t="n">
         <v>553011.528634001</v>
       </c>
       <c r="D2" t="n">
-        <v>553026.602119014</v>
+        <v>553026.6021190137</v>
       </c>
       <c r="E2" t="n">
         <v>492439.5006108581</v>
@@ -26326,34 +26326,34 @@
         <v>492439.5006108581</v>
       </c>
       <c r="G2" t="n">
-        <v>536308.3043414123</v>
+        <v>536308.304341412</v>
       </c>
       <c r="H2" t="n">
         <v>536308.3043414121</v>
       </c>
       <c r="I2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="J2" t="n">
         <v>554203.1946583914</v>
-      </c>
-      <c r="J2" t="n">
-        <v>554203.1946583918</v>
       </c>
       <c r="K2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="N2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="O2" t="n">
+        <v>554203.1946583919</v>
+      </c>
+      <c r="P2" t="n">
         <v>554203.1946583915</v>
-      </c>
-      <c r="P2" t="n">
-        <v>554203.194658392</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552226</v>
+        <v>59764.55367552348</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983392</v>
+        <v>22821.4678298336</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.364242052659392e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995428</v>
+        <v>421637.9387995424</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362514</v>
+        <v>38804.27401362512</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362514</v>
+        <v>38804.27401362512</v>
       </c>
       <c r="G4" t="n">
         <v>75832.43437506736</v>
@@ -26436,28 +26436,28 @@
         <v>75832.43437506736</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451306</v>
+        <v>88045.16093451303</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173084</v>
+        <v>84858.15940173087</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173081</v>
+        <v>84858.15940173085</v>
       </c>
       <c r="L4" t="n">
         <v>84858.15940173084</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815702</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815705</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="O4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="P4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815711</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186635</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26485,16 +26485,16 @@
         <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184212</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77734.67863818034</v>
+        <v>77730.26506031246</v>
       </c>
       <c r="C6" t="n">
-        <v>77734.67863818051</v>
+        <v>77730.26506031241</v>
       </c>
       <c r="D6" t="n">
-        <v>36475.20421208262</v>
+        <v>36470.84646193558</v>
       </c>
       <c r="E6" t="n">
-        <v>-712173.2359312257</v>
+        <v>-712401.9903536229</v>
       </c>
       <c r="F6" t="n">
-        <v>377065.7362324066</v>
+        <v>376836.9818100083</v>
       </c>
       <c r="G6" t="n">
-        <v>342377.1175462559</v>
+        <v>342310.8401747113</v>
       </c>
       <c r="H6" t="n">
-        <v>379957.2268411301</v>
+        <v>379890.9494695855</v>
       </c>
       <c r="I6" t="n">
-        <v>357600.0375922023</v>
+        <v>357600.0375922025</v>
       </c>
       <c r="J6" t="n">
-        <v>354557.6605600579</v>
+        <v>354557.6605600574</v>
       </c>
       <c r="K6" t="n">
         <v>379967.0935818547</v>
       </c>
       <c r="L6" t="n">
-        <v>342386.9842869804</v>
+        <v>342386.9842869805</v>
       </c>
       <c r="M6" t="n">
-        <v>178552.4863712604</v>
+        <v>178552.4863712605</v>
       </c>
       <c r="N6" t="n">
         <v>380720.5863639844</v>
       </c>
       <c r="O6" t="n">
-        <v>380720.5863639844</v>
+        <v>380720.5863639849</v>
       </c>
       <c r="P6" t="n">
-        <v>380720.586363985</v>
+        <v>380720.5863639845</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
         <v>73.895283205719</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I2" t="n">
         <v>73.895283205719</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859251</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810487</v>
+      </c>
+      <c r="N2" t="n">
         <v>97.68472022810489</v>
       </c>
-      <c r="N2" t="n">
-        <v>97.68472022810488</v>
-      </c>
       <c r="O2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790581</v>
+        <v>69.78465283790723</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26826,10 +26826,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>50.70958360951232</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.9751366185926</v>
-      </c>
-      <c r="M2" t="n">
-        <v>50.70958360951234</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790581</v>
+        <v>69.78465283790723</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873739</v>
+        <v>85.82047987873693</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780176</v>
+        <v>132.2465643780173</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672112</v>
+        <v>84.228618466721</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987526</v>
+        <v>90.83829126987507</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519092</v>
+        <v>84.46220888519073</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990459</v>
+        <v>7.649035050990161</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317061</v>
+        <v>75.62456067317039</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28725,7 +28725,7 @@
         <v>73.895283205719</v>
       </c>
       <c r="D19" t="n">
-        <v>11.49558901075605</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E19" t="n">
         <v>73.895283205719</v>
@@ -28776,7 +28776,7 @@
         <v>73.895283205719</v>
       </c>
       <c r="U19" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075619</v>
       </c>
       <c r="V19" t="n">
         <v>73.895283205719</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D22" t="n">
-        <v>11.49558901075756</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075611</v>
       </c>
     </row>
     <row r="23">
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075611</v>
       </c>
       <c r="C25" t="n">
         <v>73.895283205719</v>
@@ -29202,7 +29202,7 @@
         <v>73.895283205719</v>
       </c>
       <c r="E25" t="n">
-        <v>11.49558901075608</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F25" t="n">
         <v>73.895283205719</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D37" t="n">
-        <v>46.7252144056539</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371188</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>45.39291458738686</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>55.47778196371172</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.4777819637104</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810505</v>
+        <v>46.72521440565379</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>54.14548214544291</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810509</v>
+        <v>55.4777819637109</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413297</v>
+        <v>0.2805413179413354</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366643</v>
+        <v>2.873093772366702</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993312</v>
+        <v>10.81556915993334</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362295</v>
+        <v>23.81059368362344</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207944</v>
+        <v>35.68590767208017</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102642</v>
+        <v>44.27152403102733</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396554</v>
+        <v>49.26060069396654</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356635</v>
+        <v>50.05768871356737</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328725</v>
+        <v>47.26805598328821</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661067</v>
+        <v>40.34219219661149</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783679</v>
+        <v>30.2953062478374</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313207</v>
+        <v>17.62255356313242</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588057</v>
+        <v>6.392835282588186</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288171</v>
+        <v>1.228069619288196</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530637</v>
+        <v>0.02244330543530683</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796465</v>
+        <v>0.1501028381796495</v>
       </c>
       <c r="H9" t="n">
-        <v>1.44967741084027</v>
+        <v>1.449677410840299</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693969</v>
+        <v>5.168014384694074</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906915</v>
+        <v>14.18142647906943</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710546</v>
+        <v>24.23831663710595</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264649</v>
+        <v>32.59140791264715</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665866</v>
+        <v>38.03263579665943</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655639</v>
+        <v>39.03924649655718</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847053</v>
+        <v>35.71328360847126</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449758</v>
+        <v>28.66305863449816</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447558</v>
+        <v>19.16049562447596</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767879</v>
+        <v>9.319542882768067</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608782</v>
+        <v>2.788094384608839</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890133</v>
+        <v>0.6050197731890257</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345166</v>
+        <v>0.009875186722345367</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486826</v>
+        <v>0.1258411772486852</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811015</v>
+        <v>1.118842466811038</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078565</v>
+        <v>3.784387403078642</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481858</v>
+        <v>8.896971231482039</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489239</v>
+        <v>14.62045677489269</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477232</v>
+        <v>18.70915102477271</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908213</v>
+        <v>19.72617653908253</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115523</v>
+        <v>19.25713215115562</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875016</v>
+        <v>17.78707839875052</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287702</v>
+        <v>15.21991838287733</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852378</v>
+        <v>10.53748257852399</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381672</v>
+        <v>5.658276933381788</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233859</v>
+        <v>2.193068516233903</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625527</v>
+        <v>0.5376850300625637</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564513</v>
+        <v>0.006864064213564653</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33737,10 +33737,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33971,10 +33971,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,19 +36364,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>666.4205505487556</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8674262666536</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36595,7 +36595,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36604,7 +36604,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>889.1354172278211</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36613,10 +36613,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>329.1988939204469</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>570.5731865948565</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37078,16 +37078,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>830.1339441365585</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>302.9830552060535</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37385,10 +37385,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37549,10 +37549,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
